--- a/params_COL/ESTACIONES-EN-COLOMBIA (1).xlsx
+++ b/params_COL/ESTACIONES-EN-COLOMBIA (1).xlsx
@@ -1021,6 +1021,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1104,8 +1105,8 @@
   </sheetPr>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1114,7 +1115,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.35"/>
@@ -3012,6 +3013,9 @@
       <c r="D69" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="E69" s="0" t="n">
+        <v>200</v>
+      </c>
       <c r="F69" s="0" t="s">
         <v>240</v>
       </c>
